--- a/www.eia.gov/forecasts/steo/xls/Fig34.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig34.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Real</t>
@@ -50,7 +50,7 @@
     <t>Change</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -405,94 +405,94 @@
                   <c:v>2.7652123157999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.8513897088000003E-2</c:v>
+                  <c:v>2.8457289805000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6130564132999998E-2</c:v>
+                  <c:v>2.607412663E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5716952589000003E-2</c:v>
+                  <c:v>2.5354855322000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6673942351000002E-2</c:v>
+                  <c:v>2.4603582204999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7753155286000003E-2</c:v>
+                  <c:v>2.2793392800999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5312370077000001E-2</c:v>
+                  <c:v>2.1252482487000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6030989999999997E-2</c:v>
+                  <c:v>2.1486370236000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.8280420000000001E-2</c:v>
+                  <c:v>2.3614419999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8369800000000001E-2</c:v>
+                  <c:v>2.3876050000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.8110979999999997E-2</c:v>
+                  <c:v>2.4429850000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8263880000000002E-2</c:v>
+                  <c:v>2.5047980000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8175500000000003E-2</c:v>
+                  <c:v>2.5438209999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.6505890000000001E-2</c:v>
+                  <c:v>2.4478929999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.8024200000000003E-2</c:v>
+                  <c:v>2.6378579999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8735339999999998E-2</c:v>
+                  <c:v>2.767348E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.604855E-2</c:v>
+                  <c:v>2.7015790000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.7213020000000001E-2</c:v>
+                  <c:v>3.1043470000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9628290000000002E-2</c:v>
+                  <c:v>3.2316669999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.6498240000000001E-2</c:v>
+                  <c:v>3.857841E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.8910650000000005E-2</c:v>
+                  <c:v>4.0930260000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.0115449999999997E-2</c:v>
+                  <c:v>4.2060199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.841729E-2</c:v>
+                  <c:v>4.0309220000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.8511049999999998E-2</c:v>
+                  <c:v>4.0273909999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.868833E-2</c:v>
+                  <c:v>4.0281830000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.9132220000000002E-2</c:v>
+                  <c:v>4.0437689999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.9337469999999999E-2</c:v>
+                  <c:v>4.0452209999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.9488219999999997E-2</c:v>
+                  <c:v>4.043099E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.067308E-2</c:v>
+                  <c:v>4.1182150000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.9898669999999997E-2</c:v>
+                  <c:v>4.0483650000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.8267169999999996E-2</c:v>
+                  <c:v>3.9153790000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,8 +507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="446447136"/>
-        <c:axId val="446456096"/>
+        <c:axId val="657959504"/>
+        <c:axId val="657958944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -880,94 +880,94 @@
                   <c:v>12676.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12718.5</c:v>
+                  <c:v>12717.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12727.2</c:v>
+                  <c:v>12726.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12747.2</c:v>
+                  <c:v>12742.7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12794</c:v>
+                  <c:v>12768.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12823.584444</c:v>
+                  <c:v>12761.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12851.367778</c:v>
+                  <c:v>12800.480740999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12872.38</c:v>
+                  <c:v>12815.363703999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12901.22</c:v>
+                  <c:v>12842.68</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12932.57</c:v>
+                  <c:v>12876.06</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12972.91</c:v>
+                  <c:v>12926.46</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13004.45</c:v>
+                  <c:v>12963.78</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13033.67</c:v>
+                  <c:v>12998.97</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13055.62</c:v>
+                  <c:v>13029.12</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13083.87</c:v>
+                  <c:v>13062.21</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13113.5</c:v>
+                  <c:v>13095.33</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13127.27</c:v>
+                  <c:v>13113.14</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13172.55</c:v>
+                  <c:v>13157.87</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13232.13</c:v>
+                  <c:v>13214.15</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13342.2</c:v>
+                  <c:v>13309.76</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13403.21</c:v>
+                  <c:v>13368.33</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>13451.37</c:v>
+                  <c:v>13417.63</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13471.29</c:v>
+                  <c:v>13447.52</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13505.27</c:v>
+                  <c:v>13485.88</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13537.92</c:v>
+                  <c:v>13522.59</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13566.51</c:v>
+                  <c:v>13555.99</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13598.56</c:v>
+                  <c:v>13590.6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13631.32</c:v>
+                  <c:v>13624.79</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13661.19</c:v>
+                  <c:v>13653.17</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13698.12</c:v>
+                  <c:v>13690.55</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13738.49</c:v>
+                  <c:v>13731.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,8 +984,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446453296"/>
-        <c:axId val="446459456"/>
+        <c:axId val="657957824"/>
+        <c:axId val="657958384"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1068,10 +1068,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.5</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,11 +1101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446447136"/>
-        <c:axId val="446456096"/>
+        <c:axId val="657959504"/>
+        <c:axId val="657958944"/>
       </c:scatterChart>
       <c:dateAx>
-        <c:axId val="446453296"/>
+        <c:axId val="657957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1122,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446459456"/>
+        <c:crossAx val="657958384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1133,7 +1133,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446459456"/>
+        <c:axId val="657958384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14000"/>
@@ -1161,13 +1161,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446453296"/>
+        <c:crossAx val="657957824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="400"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446456096"/>
+        <c:axId val="657958944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21000000000000002"/>
@@ -1184,13 +1184,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446447136"/>
+        <c:crossAx val="657959504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3.0000000000000006E-2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446447136"/>
+        <c:axId val="657959504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1210,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446456096"/>
+        <c:crossAx val="657958944"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1399,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
@@ -2021,10 +2021,10 @@
             <v>42552</v>
           </cell>
           <cell r="B70">
-            <v>12718.5</v>
+            <v>12717.8</v>
           </cell>
           <cell r="C70">
-            <v>2.8513897088000003E-2</v>
+            <v>2.8457289805000001E-2</v>
           </cell>
         </row>
         <row r="71">
@@ -2032,10 +2032,10 @@
             <v>42583</v>
           </cell>
           <cell r="B71">
-            <v>12727.2</v>
+            <v>12726.5</v>
           </cell>
           <cell r="C71">
-            <v>2.6130564132999998E-2</v>
+            <v>2.607412663E-2</v>
           </cell>
         </row>
         <row r="72">
@@ -2043,10 +2043,10 @@
             <v>42614</v>
           </cell>
           <cell r="B72">
-            <v>12747.2</v>
+            <v>12742.7</v>
           </cell>
           <cell r="C72">
-            <v>2.5716952589000003E-2</v>
+            <v>2.5354855322000002E-2</v>
           </cell>
         </row>
         <row r="73">
@@ -2054,10 +2054,10 @@
             <v>42644</v>
           </cell>
           <cell r="B73">
-            <v>12794</v>
+            <v>12768.2</v>
           </cell>
           <cell r="C73">
-            <v>2.6673942351000002E-2</v>
+            <v>2.4603582204999998E-2</v>
           </cell>
         </row>
         <row r="74">
@@ -2065,10 +2065,10 @@
             <v>42675</v>
           </cell>
           <cell r="B74">
-            <v>12823.584444</v>
+            <v>12761.7</v>
           </cell>
           <cell r="C74">
-            <v>2.7753155286000003E-2</v>
+            <v>2.2793392800999998E-2</v>
           </cell>
         </row>
         <row r="75">
@@ -2076,10 +2076,10 @@
             <v>42705</v>
           </cell>
           <cell r="B75">
-            <v>12851.367778</v>
+            <v>12800.480740999999</v>
           </cell>
           <cell r="C75">
-            <v>2.5312370077000001E-2</v>
+            <v>2.1252482487000002E-2</v>
           </cell>
         </row>
         <row r="76">
@@ -2087,10 +2087,10 @@
             <v>42736</v>
           </cell>
           <cell r="B76">
-            <v>12872.38</v>
+            <v>12815.363703999999</v>
           </cell>
           <cell r="C76">
-            <v>2.6030989999999997E-2</v>
+            <v>2.1486370236000002E-2</v>
           </cell>
         </row>
         <row r="77">
@@ -2098,10 +2098,10 @@
             <v>42767</v>
           </cell>
           <cell r="B77">
-            <v>12901.22</v>
+            <v>12842.68</v>
           </cell>
           <cell r="C77">
-            <v>2.8280420000000001E-2</v>
+            <v>2.3614419999999997E-2</v>
           </cell>
         </row>
         <row r="78">
@@ -2109,10 +2109,10 @@
             <v>42795</v>
           </cell>
           <cell r="B78">
-            <v>12932.57</v>
+            <v>12876.06</v>
           </cell>
           <cell r="C78">
-            <v>2.8369800000000001E-2</v>
+            <v>2.3876050000000003E-2</v>
           </cell>
         </row>
         <row r="79">
@@ -2120,10 +2120,10 @@
             <v>42826</v>
           </cell>
           <cell r="B79">
-            <v>12972.91</v>
+            <v>12926.46</v>
           </cell>
           <cell r="C79">
-            <v>2.8110979999999997E-2</v>
+            <v>2.4429850000000003E-2</v>
           </cell>
         </row>
         <row r="80">
@@ -2131,10 +2131,10 @@
             <v>42856</v>
           </cell>
           <cell r="B80">
-            <v>13004.45</v>
+            <v>12963.78</v>
           </cell>
           <cell r="C80">
-            <v>2.8263880000000002E-2</v>
+            <v>2.5047980000000001E-2</v>
           </cell>
         </row>
         <row r="81">
@@ -2142,10 +2142,10 @@
             <v>42887</v>
           </cell>
           <cell r="B81">
-            <v>13033.67</v>
+            <v>12998.97</v>
           </cell>
           <cell r="C81">
-            <v>2.8175500000000003E-2</v>
+            <v>2.5438209999999999E-2</v>
           </cell>
         </row>
         <row r="82">
@@ -2153,10 +2153,10 @@
             <v>42917</v>
           </cell>
           <cell r="B82">
-            <v>13055.62</v>
+            <v>13029.12</v>
           </cell>
           <cell r="C82">
-            <v>2.6505890000000001E-2</v>
+            <v>2.4478929999999999E-2</v>
           </cell>
         </row>
         <row r="83">
@@ -2164,10 +2164,10 @@
             <v>42948</v>
           </cell>
           <cell r="B83">
-            <v>13083.87</v>
+            <v>13062.21</v>
           </cell>
           <cell r="C83">
-            <v>2.8024200000000003E-2</v>
+            <v>2.6378579999999999E-2</v>
           </cell>
         </row>
         <row r="84">
@@ -2175,10 +2175,10 @@
             <v>42979</v>
           </cell>
           <cell r="B84">
-            <v>13113.5</v>
+            <v>13095.33</v>
           </cell>
           <cell r="C84">
-            <v>2.8735339999999998E-2</v>
+            <v>2.767348E-2</v>
           </cell>
         </row>
         <row r="85">
@@ -2186,10 +2186,10 @@
             <v>43009</v>
           </cell>
           <cell r="B85">
-            <v>13127.27</v>
+            <v>13113.14</v>
           </cell>
           <cell r="C85">
-            <v>2.604855E-2</v>
+            <v>2.7015790000000001E-2</v>
           </cell>
         </row>
         <row r="86">
@@ -2197,10 +2197,10 @@
             <v>43040</v>
           </cell>
           <cell r="B86">
-            <v>13172.55</v>
+            <v>13157.87</v>
           </cell>
           <cell r="C86">
-            <v>2.7213020000000001E-2</v>
+            <v>3.1043470000000004E-2</v>
           </cell>
         </row>
         <row r="87">
@@ -2208,10 +2208,10 @@
             <v>43070</v>
           </cell>
           <cell r="B87">
-            <v>13232.13</v>
+            <v>13214.15</v>
           </cell>
           <cell r="C87">
-            <v>2.9628290000000002E-2</v>
+            <v>3.2316669999999999E-2</v>
           </cell>
         </row>
         <row r="88">
@@ -2219,10 +2219,10 @@
             <v>43101</v>
           </cell>
           <cell r="B88">
-            <v>13342.2</v>
+            <v>13309.76</v>
           </cell>
           <cell r="C88">
-            <v>3.6498240000000001E-2</v>
+            <v>3.857841E-2</v>
           </cell>
         </row>
         <row r="89">
@@ -2230,10 +2230,10 @@
             <v>43132</v>
           </cell>
           <cell r="B89">
-            <v>13403.21</v>
+            <v>13368.33</v>
           </cell>
           <cell r="C89">
-            <v>3.8910650000000005E-2</v>
+            <v>4.0930260000000003E-2</v>
           </cell>
         </row>
         <row r="90">
@@ -2241,10 +2241,10 @@
             <v>43160</v>
           </cell>
           <cell r="B90">
-            <v>13451.37</v>
+            <v>13417.63</v>
           </cell>
           <cell r="C90">
-            <v>4.0115449999999997E-2</v>
+            <v>4.2060199999999999E-2</v>
           </cell>
         </row>
         <row r="91">
@@ -2252,10 +2252,10 @@
             <v>43191</v>
           </cell>
           <cell r="B91">
-            <v>13471.29</v>
+            <v>13447.52</v>
           </cell>
           <cell r="C91">
-            <v>3.841729E-2</v>
+            <v>4.0309220000000007E-2</v>
           </cell>
         </row>
         <row r="92">
@@ -2263,10 +2263,10 @@
             <v>43221</v>
           </cell>
           <cell r="B92">
-            <v>13505.27</v>
+            <v>13485.88</v>
           </cell>
           <cell r="C92">
-            <v>3.8511049999999998E-2</v>
+            <v>4.0273909999999996E-2</v>
           </cell>
         </row>
         <row r="93">
@@ -2274,10 +2274,10 @@
             <v>43252</v>
           </cell>
           <cell r="B93">
-            <v>13537.92</v>
+            <v>13522.59</v>
           </cell>
           <cell r="C93">
-            <v>3.868833E-2</v>
+            <v>4.0281830000000005E-2</v>
           </cell>
         </row>
         <row r="94">
@@ -2285,10 +2285,10 @@
             <v>43282</v>
           </cell>
           <cell r="B94">
-            <v>13566.51</v>
+            <v>13555.99</v>
           </cell>
           <cell r="C94">
-            <v>3.9132220000000002E-2</v>
+            <v>4.0437689999999998E-2</v>
           </cell>
         </row>
         <row r="95">
@@ -2296,10 +2296,10 @@
             <v>43313</v>
           </cell>
           <cell r="B95">
-            <v>13598.56</v>
+            <v>13590.6</v>
           </cell>
           <cell r="C95">
-            <v>3.9337469999999999E-2</v>
+            <v>4.0452209999999995E-2</v>
           </cell>
         </row>
         <row r="96">
@@ -2307,10 +2307,10 @@
             <v>43344</v>
           </cell>
           <cell r="B96">
-            <v>13631.32</v>
+            <v>13624.79</v>
           </cell>
           <cell r="C96">
-            <v>3.9488219999999997E-2</v>
+            <v>4.043099E-2</v>
           </cell>
         </row>
         <row r="97">
@@ -2318,10 +2318,10 @@
             <v>43374</v>
           </cell>
           <cell r="B97">
-            <v>13661.19</v>
+            <v>13653.17</v>
           </cell>
           <cell r="C97">
-            <v>4.067308E-2</v>
+            <v>4.1182150000000001E-2</v>
           </cell>
         </row>
         <row r="98">
@@ -2329,10 +2329,10 @@
             <v>43405</v>
           </cell>
           <cell r="B98">
-            <v>13698.12</v>
+            <v>13690.55</v>
           </cell>
           <cell r="C98">
-            <v>3.9898669999999997E-2</v>
+            <v>4.0483650000000003E-2</v>
           </cell>
         </row>
         <row r="99">
@@ -2340,10 +2340,10 @@
             <v>43435</v>
           </cell>
           <cell r="B99">
-            <v>13738.49</v>
+            <v>13731.53</v>
           </cell>
           <cell r="C99">
-            <v>3.8267169999999996E-2</v>
+            <v>3.9153790000000001E-2</v>
           </cell>
         </row>
         <row r="102">
@@ -2353,7 +2353,7 @@
         </row>
         <row r="103">
           <cell r="A103">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B103">
             <v>-1</v>
@@ -2361,7 +2361,7 @@
         </row>
         <row r="104">
           <cell r="A104">
-            <v>48.5</v>
+            <v>49.5</v>
           </cell>
           <cell r="B104">
             <v>1</v>
@@ -3150,10 +3150,10 @@
         <v>42552</v>
       </c>
       <c r="B70" s="11">
-        <v>12718.5</v>
+        <v>12717.8</v>
       </c>
       <c r="C70" s="13">
-        <v>2.8513897088000003E-2</v>
+        <v>2.8457289805000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3161,10 +3161,10 @@
         <v>42583</v>
       </c>
       <c r="B71" s="11">
-        <v>12727.2</v>
+        <v>12726.5</v>
       </c>
       <c r="C71" s="13">
-        <v>2.6130564132999998E-2</v>
+        <v>2.607412663E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3172,10 +3172,10 @@
         <v>42614</v>
       </c>
       <c r="B72" s="11">
-        <v>12747.2</v>
+        <v>12742.7</v>
       </c>
       <c r="C72" s="13">
-        <v>2.5716952589000003E-2</v>
+        <v>2.5354855322000002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3183,10 +3183,10 @@
         <v>42644</v>
       </c>
       <c r="B73" s="11">
-        <v>12794</v>
+        <v>12768.2</v>
       </c>
       <c r="C73" s="13">
-        <v>2.6673942351000002E-2</v>
+        <v>2.4603582204999998E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3194,10 +3194,10 @@
         <v>42675</v>
       </c>
       <c r="B74" s="11">
-        <v>12823.584444</v>
+        <v>12761.7</v>
       </c>
       <c r="C74" s="13">
-        <v>2.7753155286000003E-2</v>
+        <v>2.2793392800999998E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3205,10 +3205,10 @@
         <v>42705</v>
       </c>
       <c r="B75" s="11">
-        <v>12851.367778</v>
+        <v>12800.480740999999</v>
       </c>
       <c r="C75" s="13">
-        <v>2.5312370077000001E-2</v>
+        <v>2.1252482487000002E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3216,10 +3216,10 @@
         <v>42736</v>
       </c>
       <c r="B76" s="11">
-        <v>12872.38</v>
+        <v>12815.363703999999</v>
       </c>
       <c r="C76" s="13">
-        <v>2.6030989999999997E-2</v>
+        <v>2.1486370236000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3227,10 +3227,10 @@
         <v>42767</v>
       </c>
       <c r="B77" s="11">
-        <v>12901.22</v>
+        <v>12842.68</v>
       </c>
       <c r="C77" s="13">
-        <v>2.8280420000000001E-2</v>
+        <v>2.3614419999999997E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3238,10 +3238,10 @@
         <v>42795</v>
       </c>
       <c r="B78" s="11">
-        <v>12932.57</v>
+        <v>12876.06</v>
       </c>
       <c r="C78" s="13">
-        <v>2.8369800000000001E-2</v>
+        <v>2.3876050000000003E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3249,10 +3249,10 @@
         <v>42826</v>
       </c>
       <c r="B79" s="11">
-        <v>12972.91</v>
+        <v>12926.46</v>
       </c>
       <c r="C79" s="13">
-        <v>2.8110979999999997E-2</v>
+        <v>2.4429850000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3260,10 +3260,10 @@
         <v>42856</v>
       </c>
       <c r="B80" s="11">
-        <v>13004.45</v>
+        <v>12963.78</v>
       </c>
       <c r="C80" s="13">
-        <v>2.8263880000000002E-2</v>
+        <v>2.5047980000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3271,10 +3271,10 @@
         <v>42887</v>
       </c>
       <c r="B81" s="11">
-        <v>13033.67</v>
+        <v>12998.97</v>
       </c>
       <c r="C81" s="13">
-        <v>2.8175500000000003E-2</v>
+        <v>2.5438209999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3282,10 +3282,10 @@
         <v>42917</v>
       </c>
       <c r="B82" s="11">
-        <v>13055.62</v>
+        <v>13029.12</v>
       </c>
       <c r="C82" s="13">
-        <v>2.6505890000000001E-2</v>
+        <v>2.4478929999999999E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3293,10 +3293,10 @@
         <v>42948</v>
       </c>
       <c r="B83" s="11">
-        <v>13083.87</v>
+        <v>13062.21</v>
       </c>
       <c r="C83" s="13">
-        <v>2.8024200000000003E-2</v>
+        <v>2.6378579999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3304,10 +3304,10 @@
         <v>42979</v>
       </c>
       <c r="B84" s="11">
-        <v>13113.5</v>
+        <v>13095.33</v>
       </c>
       <c r="C84" s="13">
-        <v>2.8735339999999998E-2</v>
+        <v>2.767348E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3315,10 +3315,10 @@
         <v>43009</v>
       </c>
       <c r="B85" s="11">
-        <v>13127.27</v>
+        <v>13113.14</v>
       </c>
       <c r="C85" s="13">
-        <v>2.604855E-2</v>
+        <v>2.7015790000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3326,10 +3326,10 @@
         <v>43040</v>
       </c>
       <c r="B86" s="11">
-        <v>13172.55</v>
+        <v>13157.87</v>
       </c>
       <c r="C86" s="13">
-        <v>2.7213020000000001E-2</v>
+        <v>3.1043470000000004E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3337,10 +3337,10 @@
         <v>43070</v>
       </c>
       <c r="B87" s="11">
-        <v>13232.13</v>
+        <v>13214.15</v>
       </c>
       <c r="C87" s="13">
-        <v>2.9628290000000002E-2</v>
+        <v>3.2316669999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3348,10 +3348,10 @@
         <v>43101</v>
       </c>
       <c r="B88" s="11">
-        <v>13342.2</v>
+        <v>13309.76</v>
       </c>
       <c r="C88" s="13">
-        <v>3.6498240000000001E-2</v>
+        <v>3.857841E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3359,10 +3359,10 @@
         <v>43132</v>
       </c>
       <c r="B89" s="11">
-        <v>13403.21</v>
+        <v>13368.33</v>
       </c>
       <c r="C89" s="13">
-        <v>3.8910650000000005E-2</v>
+        <v>4.0930260000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3370,10 +3370,10 @@
         <v>43160</v>
       </c>
       <c r="B90" s="11">
-        <v>13451.37</v>
+        <v>13417.63</v>
       </c>
       <c r="C90" s="13">
-        <v>4.0115449999999997E-2</v>
+        <v>4.2060199999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3381,10 +3381,10 @@
         <v>43191</v>
       </c>
       <c r="B91" s="11">
-        <v>13471.29</v>
+        <v>13447.52</v>
       </c>
       <c r="C91" s="13">
-        <v>3.841729E-2</v>
+        <v>4.0309220000000007E-2</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3392,10 +3392,10 @@
         <v>43221</v>
       </c>
       <c r="B92" s="11">
-        <v>13505.27</v>
+        <v>13485.88</v>
       </c>
       <c r="C92" s="13">
-        <v>3.8511049999999998E-2</v>
+        <v>4.0273909999999996E-2</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3403,10 +3403,10 @@
         <v>43252</v>
       </c>
       <c r="B93" s="11">
-        <v>13537.92</v>
+        <v>13522.59</v>
       </c>
       <c r="C93" s="13">
-        <v>3.868833E-2</v>
+        <v>4.0281830000000005E-2</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3414,10 +3414,10 @@
         <v>43282</v>
       </c>
       <c r="B94" s="11">
-        <v>13566.51</v>
+        <v>13555.99</v>
       </c>
       <c r="C94" s="13">
-        <v>3.9132220000000002E-2</v>
+        <v>4.0437689999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3425,10 +3425,10 @@
         <v>43313</v>
       </c>
       <c r="B95" s="11">
-        <v>13598.56</v>
+        <v>13590.6</v>
       </c>
       <c r="C95" s="13">
-        <v>3.9337469999999999E-2</v>
+        <v>4.0452209999999995E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3436,10 +3436,10 @@
         <v>43344</v>
       </c>
       <c r="B96" s="11">
-        <v>13631.32</v>
+        <v>13624.79</v>
       </c>
       <c r="C96" s="13">
-        <v>3.9488219999999997E-2</v>
+        <v>4.043099E-2</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3447,10 +3447,10 @@
         <v>43374</v>
       </c>
       <c r="B97" s="11">
-        <v>13661.19</v>
+        <v>13653.17</v>
       </c>
       <c r="C97" s="13">
-        <v>4.067308E-2</v>
+        <v>4.1182150000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3458,10 +3458,10 @@
         <v>43405</v>
       </c>
       <c r="B98" s="11">
-        <v>13698.12</v>
+        <v>13690.55</v>
       </c>
       <c r="C98" s="13">
-        <v>3.9898669999999997E-2</v>
+        <v>4.0483650000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -3469,10 +3469,10 @@
         <v>43435</v>
       </c>
       <c r="B99" s="15">
-        <v>13738.49</v>
+        <v>13731.53</v>
       </c>
       <c r="C99" s="16">
-        <v>3.8267169999999996E-2</v>
+        <v>3.9153790000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B103" s="2">
         <v>-1</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
